--- a/biology/Botanique/Aspilia_helianthoides/Aspilia_helianthoides.xlsx
+++ b/biology/Botanique/Aspilia_helianthoides/Aspilia_helianthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspilia helianthoides est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Aspilia, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspilia helianthoides est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Aspilia, présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe dressée, pubescente, atteignant 80 cm de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe dressée, pubescente, atteignant 80 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les savanes, les jachères, les bas-fonds[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les savanes, les jachères, les bas-fonds.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle contient un inhibiteur de l'élastase neutrophile. On s'en sert pour soigner les plaies, les inflammations[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle contient un inhibiteur de l'élastase neutrophile. On s'en sert pour soigner les plaies, les inflammations.
 </t>
         </is>
       </c>
@@ -636,6 +656,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -661,15 +683,17 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 juin 2020)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 juin 2020) :
 sous-espèce Aspilia helianthoides subsp. helianthoides
 sous-espèce Aspilia helianthoides subsp. prieureana
-Selon The Plant List            (26 juin 2020)[1] :
+Selon The Plant List            (26 juin 2020) :
 sous-espèce Aspilia helianthoides subsp. ciliata (Schumach.) C.D.Adams
 sous-espèce Aspilia helianthoides subsp. prieuriana (DC.) C.D.Adams
-Selon Tropicos                                           (26 juin 2020)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Aspilia helianthoides subsp. ciliata (Schumach.) C.D. Adams
 sous-espèce Aspilia helianthoides subsp. helianthoides
 sous-espèce Aspilia helianthoides subsp. papposa (O. Hoffm. &amp; Muschl.) C.D. Adams
